--- a/app/src/main/assets/houseHold_des.xlsx
+++ b/app/src/main/assets/houseHold_des.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shenh\Documents\GitHub\ObjectOwl\app\src\main\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shenhao\GitHub\ObjectOwl\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2327FB9-44B9-48BD-93C6-06A63E3B699A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B4A469-0FE4-4497-9B76-B9ED99E2E68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="3465" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Bed</t>
-  </si>
-  <si>
-    <t>Television</t>
   </si>
   <si>
     <t>Lamp</t>
@@ -108,12 +105,6 @@
 Learning Benefit: Beds are essential for good sleep, which helps our bodies rest and grow.</t>
   </si>
   <si>
-    <t>Description: A television, or TV, is a screen that shows moving pictures and plays sound. It can show movies, cartoons, and news.
-How It’s Used: People watch TV for entertainment, learning, or to keep up with current events.
-Fun Fact: The first TV broadcast happened almost 100 years ago, and TVs used to be black and white!
-Learning Benefit: Televisions help us learn about the world through educational programs and fun shows.</t>
-  </si>
-  <si>
     <t>Description: A lamp is a device that gives off light when it’s dark. It can stand on a table or the floor, or even hang from the ceiling.
 How It’s Used: Lamps are used to light up rooms at night or when it’s cloudy outside.
 Fun Fact: The first lamps were made over 70,000 years ago using animal fat to create light!
@@ -184,6 +175,89 @@
 How It’s Used: Clocks are used to tell the time, helping us know when to wake up, go to bed, or get ready for activities.
 Fun Fact: The world’s largest clock is the Makkah Clock in Saudi Arabia, and it is over 600 meters tall!
 Learning Benefit: Clocks help us stay on schedule and plan our day, making sure we don’t miss important things like school or mealtimes.</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>Pillow</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>Bookshelf</t>
+  </si>
+  <si>
+    <t>Dustbin</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Air Conditioner</t>
+  </si>
+  <si>
+    <t>Description: A laptop is a portable computer with a screen, keyboard, and touchpad. It can be carried around and used almost anywhere.
+How It’s Used: Laptops are used for many activities, including studying, working, watching videos, playing games, and connecting with friends online.
+Fun Fact: The first laptops were invented in the early 1980s and weighed as much as a small microwave!
+Learning Benefit: Laptops make learning accessible from anywhere, allowing kids to study, research, and explore new subjects online.</t>
+  </si>
+  <si>
+    <t>Description: A window is a glass opening in a wall that allows sunlight and fresh air to enter a room.
+How It’s Used: Windows are used to let in natural light and air, making rooms brighter and more comfortable. They can also be opened for ventilation.
+Fun Fact: In ancient Egypt, windows were often covered with reeds to keep out dust instead of glass!
+Learning Benefit: Windows help kids understand the importance of natural light and fresh air for a healthy environment and encourage them to observe the world outside.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: A pillow is a soft cushion used to support the head while sleeping or resting.
+How It’s Used: Pillows are placed on beds or sofas to provide comfort and support during sleep, making it easier to rest and relax.
+Fun Fact: The ancient Egyptians used wooden pillows to keep their heads elevated and protect their hairstyles!
+Learning Benefit: Pillows provide comfort and help kids learn the importance of good sleep, which is essential for health and growth.
+</t>
+  </si>
+  <si>
+    <t>Description: A door is a movable structure used to open or close an entrance, allowing people to move in and out of rooms or buildings.
+How It’s Used: Doors are used to enter and exit rooms or buildings and can be locked for privacy and security.
+Fun Fact: The largest door in the world is part of NASA’s Vehicle Assembly Building and stands over 450 feet tall!
+Learning Benefit: Doors help kids understand privacy, security, and the importance of respecting personal spaces.</t>
+  </si>
+  <si>
+    <t>Description: A bookshelf is a piece of furniture with multiple shelves used to store and display books.
+How It’s Used: Bookshelves are used to organize and store books, making it easy to find and access reading materials.
+Fun Fact: The largest bookshelf in the world is in a library in China and can hold over 1 million books!
+Learning Benefit: Bookshelves encourage reading and help kids learn organization skills by keeping their books neatly arranged.</t>
+  </si>
+  <si>
+    <t>Description: A dustbin, or trash can, is a container used to collect and store waste until it is disposed of.
+How It’s Used: Dustbins are used to collect garbage, keeping rooms and outdoor areas clean and free of waste.
+Fun Fact: The average person produces about 4.4 pounds of trash per day, making dustbins essential for managing waste!
+Learning Benefit: Dustbins teach kids the importance of cleanliness and proper waste disposal, helping them understand the value of recycling and environmental care.</t>
+  </si>
+  <si>
+    <t>Description: A mouse is a small handheld device used to control the cursor on a computer screen.
+How It’s Used: The mouse is moved across a surface, allowing the user to click, select, and interact with items on the computer.
+Fun Fact: The first computer mouse was made from wood and invented in 1964!
+Learning Benefit: The mouse helps kids develop fine motor skills and makes using a computer easier and more interactive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: A keyboard is an input device with keys that allows users to type letters, numbers, and symbols on a computer.
+How It’s Used: Keyboards are used for typing text, entering commands, and interacting with software on a computer.
+Fun Fact: The QWERTY keyboard layout was designed over 150 years ago and is still the most common layout today!
+Learning Benefit: Keyboards help kids learn typing skills, which are essential for using computers effectively in school and future jobs.
+</t>
+  </si>
+  <si>
+    <t>Description: An air conditioner is a device that cools the air in a room, making it more comfortable in hot weather.
+How It’s Used: Air conditioners are used to lower the temperature and humidity indoors, especially in warm climates or during summer.
+Fun Fact: The first air conditioner was invented in 1902 to help a printing company control humidity, not for cooling people!
+Learning Benefit: Air conditioners teach kids about temperature control and the importance of staying cool and comfortable in hot weather.</t>
   </si>
 </sst>
 </file>
@@ -504,19 +578,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,140 +598,204 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="360" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="8" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="9" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="10" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="11" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="12" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="13" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="14" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="15" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="16" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="17" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="18" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
